--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1854779.511184412</v>
+        <v>1852573.417777974</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604727</v>
+        <v>7094780.682604725</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>175.2759558360709</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0301000117425</v>
+        <v>14.0301000117425</v>
       </c>
       <c r="H2" t="n">
-        <v>91.67954807403146</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866744</v>
+        <v>69.92680236866734</v>
       </c>
       <c r="S2" t="n">
         <v>180.0198424776876</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +756,7 @@
         <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154867</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015537</v>
+        <v>3.666034699912152</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.035360425222</v>
       </c>
       <c r="T3" t="n">
-        <v>63.57939957019413</v>
+        <v>197.4201388450818</v>
       </c>
       <c r="U3" t="n">
         <v>225.8965846405547</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>59.59372845933078</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1516959462661</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.87599515963319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>147.8607833003074</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>132.6301997610084</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,7 +990,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>168.4067386598798</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>130.1700310164804</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.255748559886</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.25292425643945</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>101.7806877295491</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589029</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>159.530724954175</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.3524204098381</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314397</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>57.17800289672064</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>76.01720212444033</v>
+        <v>0.6293919502447238</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>173.717281738808</v>
       </c>
       <c r="V19" t="n">
-        <v>42.81191359922747</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>30.1204227478322</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>181.1375494785993</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>100.7971601215481</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785994</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.06258984213126</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>5.665752551309779</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>136.9973915638141</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>209.5675193320707</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>2.26906868253792</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774349</v>
       </c>
       <c r="C35" t="n">
         <v>329.7774754849618</v>
@@ -3272,7 +3272,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E35" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F35" t="n">
         <v>371.3806294556657</v>
@@ -3284,7 +3284,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880191</v>
+        <v>6.081513486880219</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213005</v>
+        <v>73.69234550213011</v>
       </c>
       <c r="T35" t="n">
         <v>168.4225538535744</v>
       </c>
       <c r="U35" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V35" t="n">
-        <v>292.2568421840891</v>
+        <v>292.2568421840892</v>
       </c>
       <c r="W35" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X35" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y35" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700079</v>
       </c>
     </row>
     <row r="36">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C37" t="n">
         <v>131.7514048125821</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321666</v>
+        <v>9.550942980051749</v>
       </c>
       <c r="E37" t="n">
         <v>110.9385463605234</v>
@@ -3436,10 +3436,10 @@
         <v>109.9256317368855</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>130.5303919729825</v>
       </c>
       <c r="H37" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400157</v>
+        <v>53.4367363840016</v>
       </c>
       <c r="S37" t="n">
-        <v>154.2736090453961</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901234</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7164219195671</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V37" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W37" t="n">
-        <v>168.7292616431386</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X37" t="n">
         <v>190.2142391029914</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774349</v>
       </c>
       <c r="C38" t="n">
         <v>329.7774754849618</v>
@@ -3509,7 +3509,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E38" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F38" t="n">
         <v>371.3806294556657</v>
@@ -3521,7 +3521,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880198</v>
+        <v>6.081513486880226</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213011</v>
       </c>
       <c r="T38" t="n">
         <v>168.4225538535744</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V38" t="n">
-        <v>292.25684218409</v>
+        <v>292.2568421840892</v>
       </c>
       <c r="W38" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924239</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700079</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C40" t="n">
-        <v>131.7514048125821</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321666</v>
+        <v>32.04274916435897</v>
       </c>
       <c r="E40" t="n">
         <v>110.9385463605234</v>
@@ -3676,7 +3676,7 @@
         <v>130.5303919729825</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400157</v>
+        <v>53.4367363840016</v>
       </c>
       <c r="S40" t="n">
-        <v>154.2736090453961</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T40" t="n">
-        <v>184.0535329901234</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7164219195671</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V40" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W40" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X40" t="n">
         <v>190.2142391029914</v>
       </c>
       <c r="Y40" t="n">
-        <v>79.52012331393496</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880198</v>
+        <v>6.081513486880183</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213007</v>
       </c>
       <c r="T41" t="n">
-        <v>168.4225538535754</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U41" t="n">
         <v>215.4997556728562</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247738</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.3365638958915</v>
+        <v>2.402252204292116</v>
       </c>
       <c r="C43" t="n">
-        <v>131.7514048125821</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>113.1200567321666</v>
@@ -3913,10 +3913,10 @@
         <v>130.5303919729825</v>
       </c>
       <c r="H43" t="n">
-        <v>104.1412316772833</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>60.85700412379232</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>53.43673638400156</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T43" t="n">
         <v>184.0535329901234</v>
@@ -3995,7 +3995,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880198</v>
+        <v>6.081513486880169</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>73.69234550213008</v>
       </c>
       <c r="T44" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535745</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728569</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V44" t="n">
         <v>292.2568421840891</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247738</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>131.7514048125821</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>110.9385463605234</v>
+        <v>60.29851832539363</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>125.412025021991</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H46" t="n">
         <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.85700412379232</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>53.43673638400156</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T46" t="n">
         <v>184.0535329901234</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1355.849738592135</v>
+        <v>239.4759930851308</v>
       </c>
       <c r="C2" t="n">
-        <v>1355.849738592135</v>
+        <v>239.4759930851308</v>
       </c>
       <c r="D2" t="n">
-        <v>1355.849738592135</v>
+        <v>239.4759930851308</v>
       </c>
       <c r="E2" t="n">
-        <v>970.0614859938903</v>
+        <v>239.4759930851308</v>
       </c>
       <c r="F2" t="n">
-        <v>559.0755812042828</v>
+        <v>62.42957304869547</v>
       </c>
       <c r="G2" t="n">
-        <v>140.8633589701994</v>
+        <v>48.25775485501617</v>
       </c>
       <c r="H2" t="n">
-        <v>48.25775485501614</v>
+        <v>48.25775485501617</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501614</v>
+        <v>48.25775485501617</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244773</v>
+        <v>143.3613405244778</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293482</v>
+        <v>406.6417666293487</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024604</v>
+        <v>785.5410436024611</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782766</v>
+        <v>1223.746040782767</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400855</v>
+        <v>1654.409655400856</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671737</v>
+        <v>2015.885456671739</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110669</v>
+        <v>2286.72230711067</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750807</v>
+        <v>2412.887742750809</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045082</v>
+        <v>2342.254609045084</v>
       </c>
       <c r="S2" t="n">
-        <v>2160.416384320145</v>
+        <v>2160.416384320147</v>
       </c>
       <c r="T2" t="n">
-        <v>1940.694284428195</v>
+        <v>1940.694284428197</v>
       </c>
       <c r="U2" t="n">
-        <v>1686.912625935705</v>
+        <v>1686.912625935707</v>
       </c>
       <c r="V2" t="n">
-        <v>1355.849738592135</v>
+        <v>1355.849738592136</v>
       </c>
       <c r="W2" t="n">
-        <v>1355.849738592135</v>
+        <v>1003.081083322022</v>
       </c>
       <c r="X2" t="n">
-        <v>1355.849738592135</v>
+        <v>629.6153250609425</v>
       </c>
       <c r="Y2" t="n">
-        <v>1355.849738592135</v>
+        <v>239.4759930851308</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8055048397986</v>
+        <v>747.733648254077</v>
       </c>
       <c r="C3" t="n">
-        <v>814.3524755586716</v>
+        <v>747.733648254077</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4180658974203</v>
+        <v>598.7992385928258</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1806108919648</v>
+        <v>439.5617835873702</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6460529188497</v>
+        <v>293.0272256142551</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6030265867035</v>
+        <v>154.9841992821089</v>
       </c>
       <c r="H3" t="n">
-        <v>114.8765821596108</v>
+        <v>48.25775485501617</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501614</v>
+        <v>48.25775485501617</v>
       </c>
       <c r="J3" t="n">
-        <v>111.2074192719578</v>
+        <v>111.2074192719579</v>
       </c>
       <c r="K3" t="n">
-        <v>345.4192653503508</v>
+        <v>345.419265350351</v>
       </c>
       <c r="L3" t="n">
-        <v>525.946515351966</v>
+        <v>721.7503922265935</v>
       </c>
       <c r="M3" t="n">
-        <v>1017.086411664336</v>
+        <v>1017.086411664337</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.932332987179</v>
+        <v>1536.93233298718</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602202</v>
+        <v>1946.074112602204</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642311</v>
+        <v>2257.443393642312</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750807</v>
+        <v>2412.887742750809</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841559</v>
+        <v>2409.184677397362</v>
       </c>
       <c r="S3" t="n">
-        <v>2354.422089841559</v>
+        <v>2248.542899190067</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.20047411409</v>
+        <v>2049.128617528369</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.022105790298</v>
+        <v>1820.950249204576</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.869997558555</v>
+        <v>1585.798140972833</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.632640830353</v>
+        <v>1331.560784244632</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.78114062482</v>
+        <v>1123.709284039099</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.020841859867</v>
+        <v>915.9489852741451</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>353.8867891673367</v>
+        <v>403.256481247775</v>
       </c>
       <c r="C4" t="n">
-        <v>353.8867891673367</v>
+        <v>403.256481247775</v>
       </c>
       <c r="D4" t="n">
-        <v>353.8867891673367</v>
+        <v>343.0607959353197</v>
       </c>
       <c r="E4" t="n">
-        <v>353.8867891673367</v>
+        <v>195.1477023529265</v>
       </c>
       <c r="F4" t="n">
-        <v>206.9968416694264</v>
+        <v>48.25775485501617</v>
       </c>
       <c r="G4" t="n">
-        <v>206.9968416694264</v>
+        <v>48.25775485501617</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501614</v>
+        <v>48.25775485501617</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501614</v>
+        <v>48.25775485501617</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501614</v>
+        <v>48.25775485501617</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294460969</v>
+        <v>91.87143294460982</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384335</v>
+        <v>203.2083598384338</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534275</v>
+        <v>330.9866617534278</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692836</v>
+        <v>461.161297669284</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984504</v>
+        <v>565.382347798451</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978453</v>
+        <v>631.040778697846</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978453</v>
+        <v>631.040778697846</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978453</v>
+        <v>631.040778697846</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978453</v>
+        <v>631.040778697846</v>
       </c>
       <c r="T4" t="n">
-        <v>403.2564812477743</v>
+        <v>403.256481247775</v>
       </c>
       <c r="U4" t="n">
-        <v>403.2564812477743</v>
+        <v>403.256481247775</v>
       </c>
       <c r="V4" t="n">
-        <v>403.2564812477743</v>
+        <v>403.256481247775</v>
       </c>
       <c r="W4" t="n">
-        <v>403.2564812477743</v>
+        <v>403.256481247775</v>
       </c>
       <c r="X4" t="n">
-        <v>403.2564812477743</v>
+        <v>403.256481247775</v>
       </c>
       <c r="Y4" t="n">
-        <v>353.8867891673367</v>
+        <v>403.256481247775</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1483.703156598057</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C5" t="n">
-        <v>1114.740639657646</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D5" t="n">
-        <v>756.4749410508953</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E5" t="n">
-        <v>370.686688452651</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4562,13 +4562,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1483.703156598057</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,34 +4653,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528.604248231895</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>528.604248231895</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>528.604248231895</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>528.604248231895</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>528.604248231895</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1077.074462393506</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1077.074462393506</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1077.074462393506</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1077.074462393506</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>666.0885576038986</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.674302457628</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1463.674302457628</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4857,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>546.4805193761947</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>396.3638799638589</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E10" t="n">
-        <v>248.4507863814658</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,25 +5039,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M11" t="n">
-        <v>2016.310259422545</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N11" t="n">
-        <v>2996.062531649191</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5069,7 +5069,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
@@ -5109,7 +5109,7 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5118,25 +5118,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.1104853224374</v>
+        <v>554.7329138614818</v>
       </c>
       <c r="C13" t="n">
-        <v>636.1104853224374</v>
+        <v>554.7329138614818</v>
       </c>
       <c r="D13" t="n">
-        <v>485.9938459101016</v>
+        <v>404.6162744491461</v>
       </c>
       <c r="E13" t="n">
-        <v>485.9938459101016</v>
+        <v>256.703180866753</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>256.703180866753</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.82712468906</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1617.071566207524</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1327.968699333168</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1327.968699333168</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W13" t="n">
-        <v>1038.551529296207</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X13" t="n">
-        <v>1038.551529296207</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y13" t="n">
-        <v>817.7589501526771</v>
+        <v>736.3813786917215</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5264,10 +5264,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1296.118160724479</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2274.668463554307</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N14" t="n">
-        <v>3254.420735780954</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827576</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5379,16 +5379,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>805.3189328470102</v>
+        <v>244.1098774754792</v>
       </c>
       <c r="C16" t="n">
-        <v>636.3827499191033</v>
+        <v>244.1098774754792</v>
       </c>
       <c r="D16" t="n">
-        <v>486.2661105067675</v>
+        <v>244.1098774754792</v>
       </c>
       <c r="E16" t="n">
-        <v>486.2661105067675</v>
+        <v>96.19678389308606</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
         <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.513008862231</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1322.725653781988</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W16" t="n">
-        <v>1033.308483745027</v>
+        <v>874.5404723472664</v>
       </c>
       <c r="X16" t="n">
-        <v>805.3189328470102</v>
+        <v>646.550921449249</v>
       </c>
       <c r="Y16" t="n">
-        <v>805.3189328470102</v>
+        <v>425.7583423057189</v>
       </c>
     </row>
     <row r="17">
@@ -5501,40 +5501,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1390.197710791128</v>
+        <v>1732.058578925877</v>
       </c>
       <c r="M17" t="n">
-        <v>1923.729615463053</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N17" t="n">
-        <v>2903.481887689699</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.1131475839754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1769646560685</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D19" t="n">
-        <v>411.1769646560685</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,49 +5674,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1367.418964744684</v>
       </c>
       <c r="V19" t="n">
-        <v>1210.543742455763</v>
+        <v>1112.734476538797</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.543742455763</v>
+        <v>823.3173065018362</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5541915577453</v>
+        <v>595.3277556038189</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7616124142152</v>
+        <v>374.5351764602888</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,22 +5750,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2504.619866888352</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3051.398683947134</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3931.363334276589</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107237</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.6313103540831</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>590.6951274261762</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>440.5784880138405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>440.5784880138406</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>293.6885405159303</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>125.9857038906492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5908,7 +5908,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1644.746393431757</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1390.06190522587</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1390.06190522587</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>1162.072354327853</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>941.2797751843228</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
@@ -5993,31 +5993,31 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1971.087962216427</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M23" t="n">
-        <v>2949.638265046256</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>3496.417082105038</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604875</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,16 +6096,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.4168978689406</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>540.4807149410337</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6151,10 +6151,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1662.842268677441</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1373.739401803085</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1119.054913597198</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1119.054913597198</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>891.0653626991804</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>891.0653626991804</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867999</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>2883.993034926781</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6294,7 +6294,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>637.8063921226883</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="C28" t="n">
-        <v>637.8063921226883</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D28" t="n">
-        <v>487.6897527103525</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7766591279594</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F28" t="n">
-        <v>192.8867116300491</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G28" t="n">
         <v>192.8867116300491</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1873.451961213662</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1873.451961213662</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U28" t="n">
-        <v>1584.349094339306</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V28" t="n">
-        <v>1329.664606133419</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W28" t="n">
-        <v>1040.247436096458</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="X28" t="n">
-        <v>1040.247436096458</v>
+        <v>992.8806759532695</v>
       </c>
       <c r="Y28" t="n">
-        <v>819.454856952928</v>
+        <v>987.1576935782091</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277731</v>
+        <v>304.0396960664507</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176198</v>
+        <v>637.8590697562972</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.699401366029</v>
+        <v>1088.893283004706</v>
       </c>
       <c r="M29" t="n">
-        <v>1941.005908766397</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.758180993044</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6543,22 +6543,22 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320232</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>720.6978970137303</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>551.7617140858234</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>401.6450746734877</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>401.6450746734877</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>401.6450746734877</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>233.9422380482067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6622,13 +6622,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6646,25 +6646,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230348</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W31" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X31" t="n">
-        <v>1123.1389409875</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>902.34636184397</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6698,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.699401366028</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>1770.231306037953</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N32" t="n">
-        <v>2749.9835782646</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O32" t="n">
-        <v>3629.948228594054</v>
+        <v>3783.446538019154</v>
       </c>
       <c r="P32" t="n">
-        <v>4343.303316041</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862919</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6883,25 +6883,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.576850674229</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1188.497507025766</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>960.5079561277487</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>739.7153769842187</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C35" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D35" t="n">
         <v>1456.742661151839</v>
       </c>
       <c r="E35" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.676415452969</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424561</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571338</v>
+        <v>90.72827659571341</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967279</v>
       </c>
       <c r="J35" t="n">
-        <v>273.4644646386982</v>
+        <v>440.8701136590512</v>
       </c>
       <c r="K35" t="n">
-        <v>928.1877967739978</v>
+        <v>1095.593445794351</v>
       </c>
       <c r="L35" t="n">
-        <v>1379.222010022407</v>
+        <v>1546.62765904276</v>
       </c>
       <c r="M35" t="n">
-        <v>1912.753914694331</v>
+        <v>2100.44542192574</v>
       </c>
       <c r="N35" t="n">
-        <v>2459.532731753114</v>
+        <v>2647.224238984522</v>
       </c>
       <c r="O35" t="n">
-        <v>3339.497382082568</v>
+        <v>3527.188889313977</v>
       </c>
       <c r="P35" t="n">
-        <v>3856.903999996902</v>
+        <v>3921.963255671155</v>
       </c>
       <c r="Q35" t="n">
-        <v>4105.190361752584</v>
+        <v>4170.249617426837</v>
       </c>
       <c r="R35" t="n">
         <v>4229.266683983639</v>
@@ -6968,19 +6968,19 @@
         <v>3984.706179583938</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360973</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y35" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>959.6170717285981</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C36" t="n">
-        <v>785.1640424474712</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D36" t="n">
-        <v>636.22963278622</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E36" t="n">
-        <v>476.9921777807645</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F36" t="n">
-        <v>330.4576198076495</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G36" t="n">
-        <v>194.0945196402682</v>
+        <v>194.0945196402673</v>
       </c>
       <c r="H36" t="n">
-        <v>103.5926252781352</v>
+        <v>103.5926252781348</v>
       </c>
       <c r="I36" t="n">
         <v>84.58533367967279</v>
       </c>
       <c r="J36" t="n">
-        <v>178.2626031702904</v>
+        <v>178.2626031702901</v>
       </c>
       <c r="K36" t="n">
-        <v>416.5268021506378</v>
+        <v>416.5268021506373</v>
       </c>
       <c r="L36" t="n">
-        <v>783.224962463303</v>
+        <v>783.2249624633026</v>
       </c>
       <c r="M36" t="n">
         <v>1230.501287685619</v>
@@ -7044,13 +7044,13 @@
         <v>2453.544519866826</v>
       </c>
       <c r="T36" t="n">
-        <v>2260.901519544682</v>
+        <v>2260.901519544681</v>
       </c>
       <c r="U36" t="n">
         <v>2032.833672679097</v>
       </c>
       <c r="V36" t="n">
-        <v>1797.681564447355</v>
+        <v>1797.681564447354</v>
       </c>
       <c r="W36" t="n">
         <v>1543.444207719153</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>665.3886046599077</v>
+        <v>582.258988086769</v>
       </c>
       <c r="C37" t="n">
-        <v>532.3063775764915</v>
+        <v>449.1767610033528</v>
       </c>
       <c r="D37" t="n">
-        <v>418.0436940086465</v>
+        <v>439.5293438517854</v>
       </c>
       <c r="E37" t="n">
-        <v>305.984556270744</v>
+        <v>327.4702061138829</v>
       </c>
       <c r="F37" t="n">
-        <v>194.9485646173243</v>
+        <v>216.4342144604632</v>
       </c>
       <c r="G37" t="n">
-        <v>194.9485646173243</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="H37" t="n">
         <v>84.58533367967279</v>
@@ -7093,13 +7093,13 @@
         <v>84.58533367967279</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497935</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218552</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
@@ -7108,10 +7108,10 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O37" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P37" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q37" t="n">
         <v>2226.491462321464</v>
@@ -7123,22 +7123,22 @@
         <v>2016.6830325948</v>
       </c>
       <c r="T37" t="n">
-        <v>1830.770373008817</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.521461978951</v>
+        <v>1577.52146197895</v>
       </c>
       <c r="V37" t="n">
-        <v>1358.690929617555</v>
+        <v>1358.690929617554</v>
       </c>
       <c r="W37" t="n">
-        <v>1188.257331998223</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X37" t="n">
-        <v>996.1217369446963</v>
+        <v>912.9921203715573</v>
       </c>
       <c r="Y37" t="n">
-        <v>811.1831136456568</v>
+        <v>728.0534970725181</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D38" t="n">
         <v>1456.742661151839</v>
@@ -7160,13 +7160,13 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529683</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424555</v>
+        <v>352.4579211424556</v>
       </c>
       <c r="H38" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571342</v>
       </c>
       <c r="I38" t="n">
         <v>84.58533367967279</v>
@@ -7181,16 +7181,16 @@
         <v>1058.318051576954</v>
       </c>
       <c r="M38" t="n">
-        <v>1591.849956248878</v>
+        <v>2036.868354406782</v>
       </c>
       <c r="N38" t="n">
-        <v>2571.602228475525</v>
+        <v>3016.620626633429</v>
       </c>
       <c r="O38" t="n">
-        <v>3451.56687880498</v>
+        <v>3519.593097512766</v>
       </c>
       <c r="P38" t="n">
-        <v>3846.341245162158</v>
+        <v>3914.367463869944</v>
       </c>
       <c r="Q38" t="n">
         <v>4170.249617426837</v>
@@ -7208,16 +7208,16 @@
         <v>3767.029658702265</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.906027777562</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>686.8742545030466</v>
+        <v>582.2589880867693</v>
       </c>
       <c r="C40" t="n">
-        <v>553.7920274196304</v>
+        <v>582.2589880867693</v>
       </c>
       <c r="D40" t="n">
-        <v>439.5293438517853</v>
+        <v>549.8925747894369</v>
       </c>
       <c r="E40" t="n">
-        <v>327.4702061138829</v>
+        <v>437.8334370515344</v>
       </c>
       <c r="F40" t="n">
-        <v>216.4342144604632</v>
+        <v>326.7974453981147</v>
       </c>
       <c r="G40" t="n">
-        <v>84.58533367967279</v>
+        <v>194.9485646173244</v>
       </c>
       <c r="H40" t="n">
         <v>84.58533367967279</v>
@@ -7330,13 +7330,13 @@
         <v>84.58533367967279</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497939</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935367</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
@@ -7345,10 +7345,10 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q40" t="n">
         <v>2226.491462321464</v>
@@ -7360,7 +7360,7 @@
         <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
-        <v>1830.770373008817</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U40" t="n">
         <v>1577.521461978951</v>
@@ -7369,13 +7369,13 @@
         <v>1358.690929617555</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.127715425085</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X40" t="n">
-        <v>912.9921203715583</v>
+        <v>912.9921203715578</v>
       </c>
       <c r="Y40" t="n">
-        <v>832.6687634887957</v>
+        <v>728.0534970725183</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D41" t="n">
         <v>1456.742661151839</v>
@@ -7397,46 +7397,46 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529683</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424555</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H41" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571337</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J41" t="n">
-        <v>273.4644646386982</v>
+        <v>396.0967161958525</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1877967739978</v>
+        <v>1050.820048331152</v>
       </c>
       <c r="L41" t="n">
-        <v>1792.706612427352</v>
+        <v>1501.854261579561</v>
       </c>
       <c r="M41" t="n">
-        <v>2326.238517099277</v>
+        <v>2035.386166251486</v>
       </c>
       <c r="N41" t="n">
-        <v>3024.21641843464</v>
+        <v>2582.164983310268</v>
       </c>
       <c r="O41" t="n">
-        <v>3527.188889313977</v>
+        <v>3462.129633639723</v>
       </c>
       <c r="P41" t="n">
-        <v>3921.963255671155</v>
+        <v>3856.903999996901</v>
       </c>
       <c r="Q41" t="n">
-        <v>4170.249617426837</v>
+        <v>4105.190361752583</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T41" t="n">
         <v>3984.706179583937</v>
@@ -7445,16 +7445,16 @@
         <v>3767.029658702264</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W41" t="n">
         <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>959.6170717285979</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C42" t="n">
-        <v>785.1640424474709</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D42" t="n">
-        <v>636.2296327862197</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E42" t="n">
         <v>476.9921777807642</v>
@@ -7485,7 +7485,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J42" t="n">
         <v>178.2626031702901</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>792.0674178134338</v>
+        <v>725.6269796944457</v>
       </c>
       <c r="C43" t="n">
-        <v>658.9851907300177</v>
+        <v>725.6269796944457</v>
       </c>
       <c r="D43" t="n">
-        <v>544.7225071621726</v>
+        <v>611.3642961266007</v>
       </c>
       <c r="E43" t="n">
-        <v>432.6633694242702</v>
+        <v>499.3051583886983</v>
       </c>
       <c r="F43" t="n">
-        <v>321.6273777708504</v>
+        <v>388.2691667352786</v>
       </c>
       <c r="G43" t="n">
-        <v>189.7784969900599</v>
+        <v>256.4202859544882</v>
       </c>
       <c r="H43" t="n">
-        <v>84.58533367967279</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J43" t="n">
         <v>164.8484282497936</v>
@@ -7573,7 +7573,7 @@
         <v>403.9760733218553</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935367</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7585,34 +7585,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q43" t="n">
         <v>2226.491462321464</v>
       </c>
       <c r="R43" t="n">
-        <v>2226.491462321464</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S43" t="n">
-        <v>2226.491462321464</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T43" t="n">
-        <v>2040.578802735481</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U43" t="n">
-        <v>1787.329891705615</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V43" t="n">
-        <v>1568.499359344219</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W43" t="n">
-        <v>1314.936145151749</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X43" t="n">
-        <v>1122.800550098222</v>
+        <v>912.992120371558</v>
       </c>
       <c r="Y43" t="n">
-        <v>937.8619267991829</v>
+        <v>728.0534970725186</v>
       </c>
     </row>
     <row r="44">
@@ -7640,43 +7640,43 @@
         <v>352.4579211424555</v>
       </c>
       <c r="H44" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571335</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J44" t="n">
-        <v>273.4644646386982</v>
+        <v>440.8701136590512</v>
       </c>
       <c r="K44" t="n">
-        <v>607.2838383285448</v>
+        <v>1095.593445794351</v>
       </c>
       <c r="L44" t="n">
-        <v>1058.318051576954</v>
+        <v>1546.62765904276</v>
       </c>
       <c r="M44" t="n">
-        <v>2036.868354406782</v>
+        <v>2080.159563714684</v>
       </c>
       <c r="N44" t="n">
-        <v>2748.965322007081</v>
+        <v>2626.938380773467</v>
       </c>
       <c r="O44" t="n">
-        <v>3251.937792886418</v>
+        <v>3143.548912549955</v>
       </c>
       <c r="P44" t="n">
-        <v>3646.712159243596</v>
+        <v>3856.903999996901</v>
       </c>
       <c r="Q44" t="n">
-        <v>4105.190361752584</v>
+        <v>4105.190361752583</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U44" t="n">
         <v>3767.029658702264</v>
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.6170717285979</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C45" t="n">
-        <v>785.1640424474709</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D45" t="n">
-        <v>636.2296327862197</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E45" t="n">
         <v>476.9921777807642</v>
@@ -7722,7 +7722,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J45" t="n">
         <v>178.2626031702901</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>792.0674178134342</v>
+        <v>582.2589880867693</v>
       </c>
       <c r="C46" t="n">
-        <v>658.9851907300178</v>
+        <v>449.176761003353</v>
       </c>
       <c r="D46" t="n">
-        <v>544.7225071621727</v>
+        <v>449.176761003353</v>
       </c>
       <c r="E46" t="n">
-        <v>432.6633694242705</v>
+        <v>388.2691667352786</v>
       </c>
       <c r="F46" t="n">
-        <v>321.6273777708506</v>
+        <v>388.2691667352786</v>
       </c>
       <c r="G46" t="n">
-        <v>194.9485646173243</v>
+        <v>256.4202859544882</v>
       </c>
       <c r="H46" t="n">
-        <v>84.58533367967279</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J46" t="n">
         <v>164.8484282497936</v>
@@ -7810,7 +7810,7 @@
         <v>403.9760733218553</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M46" t="n">
         <v>1134.973841616271</v>
@@ -7822,34 +7822,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q46" t="n">
         <v>2226.491462321464</v>
       </c>
       <c r="R46" t="n">
-        <v>2226.491462321464</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S46" t="n">
-        <v>2226.491462321464</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T46" t="n">
-        <v>2040.578802735481</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U46" t="n">
-        <v>1787.329891705615</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V46" t="n">
-        <v>1568.499359344219</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W46" t="n">
-        <v>1314.936145151749</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X46" t="n">
-        <v>1122.800550098223</v>
+        <v>912.9921203715583</v>
       </c>
       <c r="Y46" t="n">
-        <v>937.8619267991833</v>
+        <v>728.0534970725182</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>173.0586514907046</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>267.9233699372456</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>410.4190035206666</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>260.9678829613766</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>229.1155640189938</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>29.61882225792191</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>176.2173930448442</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>354.4836849406614</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
-        <v>146.0713065388583</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9641,22 +9641,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>11.6415344357888</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>37.1365111780442</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>19.7975057161928</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>172.4995987156</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>295.4822118493984</v>
       </c>
       <c r="Q32" t="n">
-        <v>128.7323010770063</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>20.49076586975286</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>123.8709611688436</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,19 +10829,19 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>76.38586920100701</v>
+        <v>7.6725169709201</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>123.8709611688428</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>152.7263477541215</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>166.9880308500166</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>13.77581908803199</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>6.49508330485321</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.3709463794486</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>69.40384589849091</v>
+        <v>144.7916560726865</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>112.4945564668049</v>
       </c>
       <c r="V19" t="n">
-        <v>209.3257297246005</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>114.6345921664886</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24175,19 +24175,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>118.7517891546211</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24649,7 +24649,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>107.7064354893106</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>212.918900800785</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>7.757623350506663</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>16.14213605696642</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25123,7 +25123,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>284.2539296540531</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>103.5691137521149</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729825</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379233</v>
+        <v>60.85700412379236</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>82.29832040740665</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>81.07730756780765</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379234</v>
+        <v>60.85700412379236</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.5691137521141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>141.9343116915994</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>5.118366950991756</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379234</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400158</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>154.2736090453961</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>50.64002803512977</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G46" t="n">
-        <v>5.118366950991515</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379233</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400158</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.2736090453961</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881494.7672302297</v>
+        <v>881494.7672302296</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>881494.7672302296</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894679.3277984172</v>
+        <v>894679.3277984171</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>894679.3277984171</v>
+        <v>894679.3277984172</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>894679.3277984171</v>
+        <v>894679.3277984172</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
         <v>536060.4122974272</v>
       </c>
       <c r="F2" t="n">
-        <v>536060.412297427</v>
+        <v>536060.4122974272</v>
       </c>
       <c r="G2" t="n">
         <v>536060.4122974272</v>
       </c>
       <c r="H2" t="n">
+        <v>536060.4122974272</v>
+      </c>
+      <c r="I2" t="n">
         <v>536060.4122974271</v>
-      </c>
-      <c r="I2" t="n">
-        <v>536060.4122974273</v>
       </c>
       <c r="J2" t="n">
         <v>536060.4122974272</v>
       </c>
       <c r="K2" t="n">
-        <v>536060.4122974273</v>
+        <v>536060.4122974274</v>
       </c>
       <c r="L2" t="n">
         <v>536060.4122974274</v>
       </c>
       <c r="M2" t="n">
-        <v>549769.4860510235</v>
+        <v>549769.4860510232</v>
       </c>
       <c r="N2" t="n">
-        <v>549769.4860510238</v>
+        <v>549769.4860510239</v>
       </c>
       <c r="O2" t="n">
-        <v>549769.4860510238</v>
+        <v>549769.4860510236</v>
       </c>
       <c r="P2" t="n">
         <v>549769.4860510237</v>
@@ -26363,34 +26363,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394251</v>
+        <v>507203.1428394257</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.2821741821</v>
+        <v>78665.28217418156</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.400141073</v>
+        <v>157829.4001410732</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022241</v>
+        <v>18289.94367022193</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232017.7717547203</v>
+        <v>232017.7717547201</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.8393528958</v>
+        <v>28561.83935289572</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="G4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="M4" t="n">
+        <v>55718.30868501851</v>
+      </c>
+      <c r="N4" t="n">
+        <v>55718.30868501849</v>
+      </c>
+      <c r="O4" t="n">
         <v>55718.30868501854</v>
       </c>
-      <c r="N4" t="n">
-        <v>55718.30868501851</v>
-      </c>
-      <c r="O4" t="n">
-        <v>55718.3086850185</v>
-      </c>
       <c r="P4" t="n">
-        <v>55718.30868501851</v>
+        <v>55718.30868501854</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133421</v>
+        <v>77204.68871133425</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,22 +26479,22 @@
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26506,10 +26506,10 @@
         <v>91026.0498212368</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123678</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-262222.408647088</v>
+        <v>-262222.4086470884</v>
       </c>
       <c r="C6" t="n">
-        <v>182756.418957766</v>
+        <v>182756.418957767</v>
       </c>
       <c r="D6" t="n">
-        <v>261421.7011319485</v>
+        <v>261421.7011319484</v>
       </c>
       <c r="E6" t="n">
-        <v>-316262.3593025889</v>
+        <v>-316329.5547928147</v>
       </c>
       <c r="F6" t="n">
-        <v>411115.0546908173</v>
+        <v>411047.859200592</v>
       </c>
       <c r="G6" t="n">
-        <v>411115.0546908178</v>
+        <v>411047.859200592</v>
       </c>
       <c r="H6" t="n">
-        <v>411115.0546908177</v>
+        <v>411047.8592005919</v>
       </c>
       <c r="I6" t="n">
-        <v>411115.0546908179</v>
+        <v>411047.8592005919</v>
       </c>
       <c r="J6" t="n">
-        <v>253285.6545497448</v>
+        <v>253218.4590595188</v>
       </c>
       <c r="K6" t="n">
-        <v>392825.1110205955</v>
+        <v>392757.9155303703</v>
       </c>
       <c r="L6" t="n">
-        <v>411115.0546908184</v>
+        <v>411047.8592005922</v>
       </c>
       <c r="M6" t="n">
-        <v>279176.3363565931</v>
+        <v>279159.9152136027</v>
       </c>
       <c r="N6" t="n">
-        <v>403025.1275447685</v>
+        <v>403008.7064017784</v>
       </c>
       <c r="O6" t="n">
-        <v>403025.1275447685</v>
+        <v>403008.706401778</v>
       </c>
       <c r="P6" t="n">
-        <v>403025.1275447684</v>
+        <v>403008.7064017782</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688966</v>
+        <v>316.568578968897</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877017</v>
+        <v>603.2219356877022</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,26 +26957,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688966</v>
+        <v>316.568578968897</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524819004</v>
+        <v>61.17508524818965</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877017</v>
+        <v>603.2219356877022</v>
       </c>
       <c r="C4" t="n">
-        <v>71.065337066854</v>
+        <v>71.06533706685343</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877015</v>
+        <v>603.2219356877022</v>
       </c>
       <c r="K4" t="n">
-        <v>71.065337066854</v>
+        <v>71.06533706685343</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.0293982413542</v>
+        <v>383.0293982413543</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877017</v>
+        <v>603.2219356877022</v>
       </c>
       <c r="K4" t="n">
-        <v>71.065337066854</v>
+        <v>71.06533706685343</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>231.6000899056405</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>234.7618552101168</v>
+        <v>326.4414032841482</v>
       </c>
       <c r="I2" t="n">
         <v>161.4125322208646</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>65.95263903154864</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>54.21496168024316</v>
       </c>
       <c r="S3" t="n">
-        <v>159.035360425222</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>133.8407392748877</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>89.02174455888158</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
         <v>138.2831165792401</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255624</v>
+        <v>52.99928112255618</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739099</v>
+        <v>38.36018782739093</v>
       </c>
       <c r="R4" t="n">
-        <v>151.6253882365111</v>
+        <v>151.625388236511</v>
       </c>
       <c r="S4" t="n">
         <v>214.068041219212</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>169.7086581924616</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>259.015262441404</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>281.1539702597867</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>96.44405126592652</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>57.30291672915737</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>283.6141390043146</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858303</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1681237664918</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>65.52911452950185</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-3.765876499528531e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604493</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604576</v>
+        <v>35.4954162860451</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T41" t="n">
-        <v>35.4954162860447</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604561</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604504</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604576</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392548</v>
+        <v>1.27263750339255</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161894</v>
+        <v>13.03339883161896</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954127</v>
+        <v>49.06335734954133</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035634</v>
+        <v>108.0135173035635</v>
       </c>
       <c r="K2" t="n">
-        <v>161.88426282217</v>
+        <v>161.8842628221702</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166197</v>
+        <v>200.83174281662</v>
       </c>
       <c r="M2" t="n">
-        <v>223.464010017577</v>
+        <v>223.4640100175772</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240911</v>
+        <v>227.0798913240914</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497314</v>
+        <v>214.4251021497317</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847278</v>
+        <v>183.0068637847281</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944822</v>
+        <v>137.4305331944823</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248224</v>
+        <v>79.94231557248234</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855772</v>
+        <v>29.00022710855776</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100883</v>
+        <v>5.57097067110089</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714038</v>
+        <v>0.101811000271404</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859286</v>
+        <v>0.6809210943859295</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674628</v>
+        <v>6.576264253674636</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986641</v>
+        <v>23.44399381986644</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933022</v>
+        <v>64.33211093933031</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631874</v>
+        <v>109.9538242631876</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665588</v>
+        <v>147.846485866559</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380487</v>
+        <v>172.5298755380489</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648736</v>
+        <v>177.0962279648738</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313749</v>
+        <v>162.0084500313751</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674323</v>
+        <v>130.0260640674325</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.9189803991582</v>
+        <v>86.91898039915831</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248776</v>
+        <v>42.27683777248782</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861582</v>
+        <v>12.64781067861583</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739773</v>
+        <v>2.744589849739776</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012691</v>
+        <v>0.04479744042012696</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111251</v>
+        <v>0.5708613719111257</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173461</v>
+        <v>5.075476561173467</v>
       </c>
       <c r="I4" t="n">
-        <v>17.1673583480182</v>
+        <v>17.16735834801822</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411653</v>
+        <v>40.35989899411659</v>
       </c>
       <c r="K4" t="n">
-        <v>66.3237121184016</v>
+        <v>66.32371211840169</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667765</v>
+        <v>84.87151705667775</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148662</v>
+        <v>89.48511487148673</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890886</v>
+        <v>87.35735884890897</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009521977</v>
+        <v>80.68866009521987</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823277</v>
+        <v>69.04308810823285</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430339</v>
+        <v>47.80185542430345</v>
       </c>
       <c r="R4" t="n">
-        <v>25.6680031406584</v>
+        <v>25.66800314065843</v>
       </c>
       <c r="S4" t="n">
-        <v>9.94855681776024</v>
+        <v>9.948556817760252</v>
       </c>
       <c r="T4" t="n">
-        <v>2.43913495271117</v>
+        <v>2.439134952711173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333413</v>
+        <v>0.03113789301333417</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32804,7 +32804,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33035,7 +33035,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138783</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895089</v>
+        <v>96.06422794895101</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483542</v>
+        <v>265.9398243483544</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970829</v>
+        <v>382.7265423970832</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831367</v>
+        <v>442.631310283137</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394843</v>
+        <v>435.0137521394846</v>
       </c>
       <c r="O2" t="n">
-        <v>365.12707199079</v>
+        <v>365.1270719907903</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009409</v>
+        <v>273.5725762009412</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799374</v>
+        <v>127.4398339799375</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307236</v>
+        <v>63.58551961307245</v>
       </c>
       <c r="K3" t="n">
-        <v>236.577622301407</v>
+        <v>236.5776223014072</v>
       </c>
       <c r="L3" t="n">
-        <v>182.3507575773891</v>
+        <v>380.132451390144</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660302</v>
+        <v>298.3192115532761</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250938</v>
+        <v>525.0968902250941</v>
       </c>
       <c r="O3" t="n">
-        <v>413.27452486366</v>
+        <v>413.2745248636602</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930392</v>
+        <v>314.5144252930394</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489858</v>
+        <v>157.0144940489859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251875</v>
+        <v>44.05422029251883</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169938</v>
+        <v>112.4615423169939</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333272</v>
+        <v>129.0689918333273</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281375</v>
+        <v>131.4895312281376</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092594</v>
+        <v>105.2737880092595</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312625</v>
+        <v>66.32164737312634</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>866.0091179129988</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>769.0208838495956</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>684.7056784113259</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>89.23202080014663</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>631.8075074371761</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>862.5366858288805</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>544.8332927582302</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36361,22 +36361,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>519.6945353240079</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36610,7 +36610,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>435.8984973974161</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36683,7 +36683,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407865</v>
+        <v>210.5845066849054</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>711.420714545827</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248959</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509648</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193721</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340041</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37084,10 +37084,10 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>694.2441980687703</v>
       </c>
       <c r="Q32" t="n">
-        <v>379.5266058807258</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>559.4118816999796</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37321,13 +37321,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>522.6329473882155</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911201</v>
+        <v>81.07383289911195</v>
       </c>
       <c r="K37" t="n">
         <v>241.5430758303653</v>
       </c>
       <c r="L37" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M37" t="n">
         <v>383.1287956795296</v>
@@ -37476,7 +37476,7 @@
         <v>380.3523624535858</v>
       </c>
       <c r="O37" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P37" t="n">
         <v>270.4524874311562</v>
@@ -37549,19 +37549,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>327.1801740047265</v>
+        <v>258.4668217746396</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911195</v>
       </c>
       <c r="K40" t="n">
         <v>241.5430758303653</v>
       </c>
       <c r="L40" t="n">
-        <v>355.2527884562439</v>
+        <v>355.2527884562438</v>
       </c>
       <c r="M40" t="n">
         <v>383.1287956795296</v>
@@ -37713,7 +37713,7 @@
         <v>380.3523624535858</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P40" t="n">
         <v>270.4524874311562</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>314.6579621375553</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>705.028183167033</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911199</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L43" t="n">
         <v>355.2527884562439</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>719.2898662629281</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>521.8288199762511</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911199</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L46" t="n">
         <v>355.2527884562439</v>
